--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_9_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_9_sine_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.77000000000028</v>
+        <v>23.63000000000025</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.853433987432378e-16</v>
+        <v>4.724353296277262e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>38.99366950235702</v>
+        <v>41.38295220950818</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[31.867469357008886, 46.11986964770516]</t>
+          <t>[33.545192989422596, 49.220711429593756]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.603816069400195</v>
+        <v>1.352237078121733</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4025528763774258, 1.8050792624229643]</t>
+          <t>[1.1509738850989635, 1.553500271144502]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.9688850583088</v>
+        <v>62.1733219735759</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[56.30485467929921, 65.63291543731839]</t>
+          <t>[57.433395181514584, 66.9132487656372]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.70258258258279</v>
+        <v>18.54446446446466</v>
       </c>
       <c r="X2" t="n">
-        <v>16.94118118118137</v>
+        <v>17.78754754754774</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.4639839839842</v>
+        <v>19.30138138138159</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.43000000000022</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.976759949646635e-10</v>
+        <v>6.52455867111712e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>8.670307986861154e-10</v>
+        <v>2.031521064517763e-11</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>35.58078955089527</v>
+        <v>38.06233581228073</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[23.345154049714516, 47.81642505207602]</t>
+          <t>[24.615236505906402, 51.509435118655055]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.787425084667007e-08</v>
+        <v>8.105795923363246e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.787425084667007e-08</v>
+        <v>8.105795923363246e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2830263651882694</v>
+        <v>2.471763589310888</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.10692107129334705, 0.6729738016698859]</t>
+          <t>[2.132131951084964, 2.8113952275368126]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.1538749424067638</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1538749424067638</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.38922747002249</v>
+        <v>57.9170970037102</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.38788048443916, 69.39057445560582]</t>
+          <t>[51.021475653205414, 64.81271835421498]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.37459459459481</v>
+        <v>14.60708708708728</v>
       </c>
       <c r="X3" t="n">
-        <v>20.92048048048068</v>
+        <v>13.30546546546564</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.82870870870894</v>
+        <v>15.90870870870893</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_9_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_9_sine_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63000000000025</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.724353296277262e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>3.595864047368928e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8318563193483893</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>41.38295220950818</v>
+        <v>44.71045212768273</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[33.545192989422596, 49.220711429593756]</t>
+          <t>[37.7801059126311, 51.64079834273436]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.352237078121733</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1509738850989635, 1.553500271144502]</t>
+          <t>[1.3270791789938867, 1.6792897667837332]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>62.1733219735759</v>
+        <v>60.6601482359544</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[57.433395181514584, 66.9132487656372]</t>
+          <t>[56.13138784132303, 65.18890863058577]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.54446446446466</v>
+        <v>18.06806806806828</v>
       </c>
       <c r="X2" t="n">
-        <v>17.78754754754774</v>
+        <v>17.4024024024026</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.30138138138159</v>
+        <v>18.73373373373395</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +654,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9400000000003</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.52455867111712e-12</v>
+        <v>6.439293542825908e-15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.031521064517763e-11</v>
+        <v>1.8782267656741e-14</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>38.06233581228073</v>
+        <v>46.44761416968992</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[24.615236505906402, 51.509435118655055]</t>
+          <t>[33.67079888858049, 59.22442945079935]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8.105795923363246e-08</v>
+        <v>1.634758994839558e-11</v>
       </c>
       <c r="N3" t="n">
-        <v>8.105795923363246e-08</v>
+        <v>1.634758994839558e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>2.471763589310888</v>
+        <v>1.817658211986886</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.132131951084964, 2.8113952275368126]</t>
+          <t>[1.5283423720166542, 2.1069740519571187]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.9170970037102</v>
+        <v>55.59816674777915</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.021475653205414, 64.81271835421498]</t>
+          <t>[48.279255912715335, 62.91707758284296]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.60708708708728</v>
+        <v>17.01441441441463</v>
       </c>
       <c r="X3" t="n">
-        <v>13.30546546546564</v>
+        <v>15.91207207207227</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.90870870870893</v>
+        <v>18.116756756757</v>
       </c>
     </row>
   </sheetData>
